--- a/IDs.xlsx
+++ b/IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648515D5-194A-4713-AC37-691F4A9D7419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F478CA7-3E47-4E57-BAF2-0640909D374A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1185" windowWidth="11363" windowHeight="14153" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
+    <workbookView xWindow="1808" yWindow="127" windowWidth="11362" windowHeight="14153" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -213,6 +213,66 @@
   </si>
   <si>
     <t>Great Saiyaman 4</t>
+  </si>
+  <si>
+    <t>Yamcha</t>
+  </si>
+  <si>
+    <t>Yajirobe</t>
+  </si>
+  <si>
+    <t>Bardock</t>
+  </si>
+  <si>
+    <t>Tora</t>
+  </si>
+  <si>
+    <t>Goku Black</t>
+  </si>
+  <si>
+    <t>Goku (Angel) &amp; Vegeta (Angel)</t>
+  </si>
+  <si>
+    <t>Super Saiyan God SS Goku (Kaioken) &amp; Super Saiyan God SS Evolved Vegeta</t>
+  </si>
+  <si>
+    <t>Super Saiyan Gohan (Teen) &amp; Super Saiyan Goten (Kid)</t>
+  </si>
+  <si>
+    <t>Super Saiyan Goten (Kid) &amp; Super Saiyan Trunks (Kid)</t>
+  </si>
+  <si>
+    <t>Kefla</t>
+  </si>
+  <si>
+    <t>Super Saiyan God SS Goku (Kaioken)</t>
+  </si>
+  <si>
+    <t>Buu (Kid)</t>
+  </si>
+  <si>
+    <t>Super Saiyan 2 Goku</t>
+  </si>
+  <si>
+    <t>Super Saiyan God SS Goku/Super Saiyan God SS Vegeta</t>
+  </si>
+  <si>
+    <t>Super Saiyan Goku &amp; Super Saiyan Gohan (Youth)</t>
+  </si>
+  <si>
+    <t>Goku &amp; Piccolo</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>Raditz</t>
+  </si>
+  <si>
+    <t>Majin Vegeta</t>
+  </si>
+  <si>
+    <t>Goku Black &amp; Zamasu</t>
   </si>
 </sst>
 </file>
@@ -564,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E87DFB3-D60F-40E7-B06F-71C402B92D3E}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1258,6 +1318,300 @@
         <v>14</v>
       </c>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>8</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/IDs.xlsx
+++ b/IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F478CA7-3E47-4E57-BAF2-0640909D374A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D27A55-BEF0-4A1E-A63A-B001CDECBA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1808" yWindow="127" windowWidth="11362" windowHeight="14153" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
+    <workbookView xWindow="11168" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="115">
   <si>
     <t>ID</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Rarit</t>
-  </si>
-  <si>
     <t>LR</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>TUR</t>
   </si>
   <si>
-    <t>Super Saiyan goku &amp; veteta</t>
-  </si>
-  <si>
     <t>AGL</t>
   </si>
   <si>
@@ -212,9 +206,6 @@
     <t>Sealas</t>
   </si>
   <si>
-    <t>Great Saiyaman 4</t>
-  </si>
-  <si>
     <t>Yamcha</t>
   </si>
   <si>
@@ -263,9 +254,6 @@
     <t>Goku &amp; Piccolo</t>
   </si>
   <si>
-    <t>DF</t>
-  </si>
-  <si>
     <t>Raditz</t>
   </si>
   <si>
@@ -273,6 +261,126 @@
   </si>
   <si>
     <t>Goku Black &amp; Zamasu</t>
+  </si>
+  <si>
+    <t>Boujack</t>
+  </si>
+  <si>
+    <t>Ultimate Gohan</t>
+  </si>
+  <si>
+    <t>Piccolo (Power Awakening)</t>
+  </si>
+  <si>
+    <t>Pan (Kid)</t>
+  </si>
+  <si>
+    <t>Trunks (Teen) &amp; Goten (Teen)</t>
+  </si>
+  <si>
+    <t>Vegeta (Great Ape)</t>
+  </si>
+  <si>
+    <t>Goku (Kaioken)</t>
+  </si>
+  <si>
+    <t>Trunks (Teen)</t>
+  </si>
+  <si>
+    <t>Super Saiyan Gohan (Future)</t>
+  </si>
+  <si>
+    <t>Super Vegeta</t>
+  </si>
+  <si>
+    <t>Videl</t>
+  </si>
+  <si>
+    <t>Frieza (Full Power)</t>
+  </si>
+  <si>
+    <t>Legendary Super Saiyan Broly</t>
+  </si>
+  <si>
+    <t>Pikkon</t>
+  </si>
+  <si>
+    <t>Janemba</t>
+  </si>
+  <si>
+    <t>Goku (Ultra Instinct -Sign)</t>
+  </si>
+  <si>
+    <t>Rarity</t>
+  </si>
+  <si>
+    <t>Vegito Blue</t>
+  </si>
+  <si>
+    <t>Goku Black (Super Saiyan Rose)</t>
+  </si>
+  <si>
+    <t>Super Saiyan Gogeta</t>
+  </si>
+  <si>
+    <t>Super Saiyan Broly</t>
+  </si>
+  <si>
+    <t>Super Saiyan 3 Bardock</t>
+  </si>
+  <si>
+    <t>SSGSSE Vegeta</t>
+  </si>
+  <si>
+    <t>Turles</t>
+  </si>
+  <si>
+    <t>Super #17</t>
+  </si>
+  <si>
+    <t>Golden Frieza (Angel)</t>
+  </si>
+  <si>
+    <t>Super Full Power Saiyan 4 Goku</t>
+  </si>
+  <si>
+    <t>Super Saiyan 4 Gogeta</t>
+  </si>
+  <si>
+    <t>Cell (Perfect Form)</t>
+  </si>
+  <si>
+    <t>Super Saiyan Gohan</t>
+  </si>
+  <si>
+    <t>Super Saiyan goku &amp; vegeta</t>
+  </si>
+  <si>
+    <t>Great Saiyaman 3</t>
+  </si>
+  <si>
+    <t>GoldenBois</t>
+  </si>
+  <si>
+    <t>GT Bois</t>
+  </si>
+  <si>
+    <t>SS3 Gotenks &amp; Piccolo</t>
+  </si>
+  <si>
+    <t>Eis &amp; Nuova</t>
+  </si>
+  <si>
+    <t>Super Buu</t>
+  </si>
+  <si>
+    <t>God Goku</t>
+  </si>
+  <si>
+    <t>Gohan (Kid)</t>
+  </si>
+  <si>
+    <t>Goku</t>
   </si>
 </sst>
 </file>
@@ -624,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E87DFB3-D60F-40E7-B06F-71C402B92D3E}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -643,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -654,10 +762,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.45">
@@ -665,13 +773,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -679,13 +787,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -693,13 +801,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -707,13 +815,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -721,13 +829,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -735,13 +843,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -749,13 +857,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -763,13 +871,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -780,10 +888,10 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -791,13 +899,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -805,13 +913,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -819,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -833,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -847,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -861,13 +969,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -875,13 +983,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -889,13 +997,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -903,13 +1011,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -917,13 +1025,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -931,13 +1039,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -945,13 +1053,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
@@ -959,13 +1067,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -973,13 +1081,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -987,13 +1095,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
@@ -1001,13 +1109,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
@@ -1015,13 +1123,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -1029,13 +1137,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -1043,13 +1151,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -1057,13 +1165,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.45">
@@ -1071,13 +1179,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.45">
@@ -1085,13 +1193,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
@@ -1099,13 +1207,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
@@ -1113,13 +1221,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -1127,13 +1235,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -1141,13 +1249,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -1155,13 +1263,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C38" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
@@ -1169,13 +1277,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
@@ -1183,13 +1291,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
@@ -1197,13 +1305,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
@@ -1211,13 +1319,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -1225,13 +1333,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -1239,13 +1347,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -1253,13 +1361,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
@@ -1267,13 +1375,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
@@ -1281,13 +1389,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
@@ -1295,13 +1403,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
@@ -1309,13 +1417,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
@@ -1323,13 +1431,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
@@ -1337,13 +1445,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
@@ -1351,13 +1459,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
@@ -1365,13 +1473,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
@@ -1379,13 +1487,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.45">
@@ -1393,13 +1501,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
@@ -1407,13 +1515,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
@@ -1421,13 +1529,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
@@ -1435,13 +1543,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
@@ -1449,13 +1557,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C59" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
@@ -1463,13 +1571,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
@@ -1477,13 +1585,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
@@ -1494,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
@@ -1505,13 +1613,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
@@ -1519,13 +1627,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -1533,13 +1641,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
@@ -1547,13 +1655,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
@@ -1561,13 +1669,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
@@ -1575,13 +1683,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
@@ -1589,13 +1697,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
@@ -1603,13 +1711,2143 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
         <v>78</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C74" t="s">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>82</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80" t="s">
         <v>8</v>
       </c>
-      <c r="D70" t="s">
-        <v>6</v>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>87</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>92</v>
+      </c>
+      <c r="C89" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>95</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C94" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>100</v>
+      </c>
+      <c r="C100" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>90</v>
+      </c>
+      <c r="C101" t="s">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>101</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>102</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>113</v>
+      </c>
+      <c r="C114" t="s">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A116">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A117">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A118">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A119">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A120">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A121">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A122">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A123">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A124">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A125">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A126">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A127">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A128">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A129">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A130">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A131">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A132">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A133">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A134">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A135">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A136">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A137">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A138">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A139">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A140">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A141">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A142">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A143">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A144">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A145">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A146">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A147">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A148">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A149">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A150">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A151">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A152">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A153">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A154">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A155">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A156">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A157">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A158">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A159">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A160">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A161">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A162">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A163">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A164">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A165">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A166">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A167">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A168">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A169">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A170">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A171">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A172">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A173">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A174">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A176">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A177">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A178">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A179">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A180">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A181">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A182">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A183">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A184">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A185">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A186">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A187">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A188">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A189">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A190">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A191">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A192">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A193">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A194">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A195">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A196">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A197">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A198">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A199">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A200">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A201">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A202">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A203">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A204">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A205">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A206">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A207">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A208">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A209">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A210">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A211">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A212">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A213">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A214">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A215">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A216">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A217">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A218">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A219">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A220">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A221">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A222">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A223">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A224">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A225">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A226">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A227">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A228">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A229">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A230">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A231">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A232">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A233">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A234">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A235">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A236">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A237">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A238">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A239">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A240">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A241">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A242">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A243">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A244">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A245">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A246">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A247">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A248">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A249">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A250">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A251">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A252">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A253">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A254">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A255">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A256">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A257">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A258">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A259">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A260">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A261">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A262">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A263">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A264">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A265">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A266">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A267">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A268">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A269">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A270">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A271">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A272">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A273">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A274">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A275">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A276">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A277">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A278">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A279">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A280">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A281">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A282">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A283">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A284">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A285">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A286">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A287">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A288">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A289">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A290">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A291">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A292">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A293">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A294">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A295">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A296">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A297">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A298">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A299">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A300">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A301">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A302">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A303">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A304">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A305">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A306">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A307">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A308">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A309">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A310">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A311">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A312">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A313">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A314">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A315">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A316">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A317">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A318">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A319">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A320">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A321">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A322">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A323">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A324">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A325">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A326">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A327">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A328">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A329">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A330">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A331">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A332">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A333">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A334">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A335">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A336">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A337">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A338">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A339">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A340">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A341">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A342">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A343">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A344">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A345">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A346">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A347">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A348">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A349">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A350">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A351">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A352">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A353">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A354">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A355">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A356">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A357">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A358">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A359">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A360">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A361">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A362">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A363">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A364">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A365">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A366">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A367">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A368">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A369">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A370">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A371">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A372">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A373">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A374">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A375">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A376">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A377">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A378">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A379">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A380">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A381">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A382">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A383">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A384">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A385">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A386">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A387">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A388">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A389">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A390">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A391">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A392">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A393">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A394">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A395">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A396">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A397">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A398">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A399">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A400">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A401">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A402">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A403">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A404">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A405">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A406">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A407">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A408">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A409">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A410">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A411">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A412">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A413">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A414">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A415">
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/IDs.xlsx
+++ b/IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D27A55-BEF0-4A1E-A63A-B001CDECBA2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E234E83-AC95-4DE6-833C-13C1238397BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11168" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -381,6 +381,12 @@
   </si>
   <si>
     <t>Goku</t>
+  </si>
+  <si>
+    <t>Gogeta</t>
+  </si>
+  <si>
+    <t>Vegito</t>
   </si>
 </sst>
 </file>
@@ -734,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E87DFB3-D60F-40E7-B06F-71C402B92D3E}">
   <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2354,10 +2360,28 @@
       <c r="A116">
         <v>115</v>
       </c>
+      <c r="B116" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>116</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">

--- a/IDs.xlsx
+++ b/IDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E234E83-AC95-4DE6-833C-13C1238397BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6850873B-F130-46E8-81D3-E035067D7EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="133">
   <si>
     <t>ID</t>
   </si>
@@ -387,6 +387,54 @@
   </si>
   <si>
     <t>Vegito</t>
+  </si>
+  <si>
+    <t>Android 17 (GT) &amp; Hell Fighter Android 17</t>
+  </si>
+  <si>
+    <t>Android 17</t>
+  </si>
+  <si>
+    <t>Beerus &amp; Whis</t>
+  </si>
+  <si>
+    <t>Super Saiyan Vegeta</t>
+  </si>
+  <si>
+    <t>Super Saiyan God Goku</t>
+  </si>
+  <si>
+    <t>Kale (Berserk)</t>
+  </si>
+  <si>
+    <t>Frost (Final Form)</t>
+  </si>
+  <si>
+    <t>Super Saiyan 2 Caulifla &amp; Super Saiyan 2 Kale</t>
+  </si>
+  <si>
+    <t>Dr. Myu &amp; Dr. gero</t>
+  </si>
+  <si>
+    <t>Krillin</t>
+  </si>
+  <si>
+    <t>Tien</t>
+  </si>
+  <si>
+    <t>Piccolo Jr. (Giant Form)</t>
+  </si>
+  <si>
+    <t>Piccolo</t>
+  </si>
+  <si>
+    <t>Bulma (Youth)</t>
+  </si>
+  <si>
+    <t>Amond &amp; Rasin</t>
+  </si>
+  <si>
+    <t>Daiz &amp; Cacao</t>
   </si>
 </sst>
 </file>
@@ -439,6 +487,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0CB3421B-E7CF-483E-93BA-94B80506E40B}" name="Table1" displayName="Table1" ref="A1:D415" totalsRowShown="0">
+  <autoFilter ref="A1:D415" xr:uid="{0CB3421B-E7CF-483E-93BA-94B80506E40B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0B0ED9F7-9017-421F-B11B-26AE62EC6BA1}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{2529AB2C-869B-4E96-A1A5-C6162FB11F1F}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{941DB3B1-66A2-454F-A23C-C0AFB70BF598}" name="Type"/>
+    <tableColumn id="4" xr3:uid="{A9168466-ABE1-4783-9DAB-20258779690B}" name="Rarity"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -740,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E87DFB3-D60F-40E7-B06F-71C402B92D3E}">
   <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="B118" sqref="B118"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2388,133 +2449,313 @@
       <c r="A118">
         <v>117</v>
       </c>
+      <c r="B118" t="s">
+        <v>117</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>118</v>
       </c>
+      <c r="B119" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>119</v>
       </c>
+      <c r="B120" t="s">
+        <v>118</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>120</v>
       </c>
+      <c r="B121" t="s">
+        <v>119</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>121</v>
       </c>
+      <c r="B122" t="s">
+        <v>120</v>
+      </c>
+      <c r="C122" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>122</v>
       </c>
+      <c r="B123" t="s">
+        <v>121</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>123</v>
       </c>
+      <c r="B124" t="s">
+        <v>122</v>
+      </c>
+      <c r="C124" t="s">
+        <v>14</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>124</v>
       </c>
+      <c r="B125" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>125</v>
       </c>
+      <c r="B126" t="s">
+        <v>124</v>
+      </c>
+      <c r="C126" t="s">
+        <v>14</v>
+      </c>
+      <c r="D126" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>126</v>
       </c>
+      <c r="B127" t="s">
+        <v>111</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B130" t="s">
+        <v>128</v>
+      </c>
+      <c r="C130" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B131" t="s">
+        <v>114</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B132" t="s">
+        <v>129</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B133" t="s">
+        <v>130</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B134" t="s">
+        <v>131</v>
+      </c>
+      <c r="C134" t="s">
+        <v>11</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B135" t="s">
+        <v>132</v>
+      </c>
+      <c r="C135" t="s">
+        <v>14</v>
+      </c>
+      <c r="D135" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B136" t="s">
+        <v>98</v>
+      </c>
+      <c r="C136" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B137" t="s">
+        <v>114</v>
+      </c>
+      <c r="C137" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
@@ -3876,5 +4117,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/IDs.xlsx
+++ b/IDs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6850873B-F130-46E8-81D3-E035067D7EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A88E82-AA2E-4727-A8BE-86AC4DA3B107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="136">
   <si>
     <t>ID</t>
   </si>
@@ -435,6 +435,15 @@
   </si>
   <si>
     <t>Daiz &amp; Cacao</t>
+  </si>
+  <si>
+    <t>Beerus</t>
+  </si>
+  <si>
+    <t>Baby</t>
+  </si>
+  <si>
+    <t>Super Gogeta</t>
   </si>
 </sst>
 </file>
@@ -801,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E87DFB3-D60F-40E7-B06F-71C402B92D3E}">
   <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L82" sqref="L82"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C141" sqref="C141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2729,20 +2738,56 @@
       <c r="A138">
         <v>137</v>
       </c>
+      <c r="B138" t="s">
+        <v>133</v>
+      </c>
+      <c r="C138" t="s">
+        <v>8</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>138</v>
       </c>
+      <c r="B139" t="s">
+        <v>134</v>
+      </c>
+      <c r="C139" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>139</v>
       </c>
+      <c r="B140" t="s">
+        <v>32</v>
+      </c>
+      <c r="C140" t="s">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>135</v>
+      </c>
+      <c r="C141" t="s">
+        <v>8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.45">

--- a/IDs.xlsx
+++ b/IDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A88E82-AA2E-4727-A8BE-86AC4DA3B107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DA338B-8EFB-41BA-9A47-C969C35EBB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="141">
   <si>
     <t>ID</t>
   </si>
@@ -444,6 +444,21 @@
   </si>
   <si>
     <t>Super Gogeta</t>
+  </si>
+  <si>
+    <t>Omega Shenron</t>
+  </si>
+  <si>
+    <t>Super Baby 2 (Giant Ape)</t>
+  </si>
+  <si>
+    <t>Super Saiyan Gohan (Youth)</t>
+  </si>
+  <si>
+    <t>UR</t>
+  </si>
+  <si>
+    <t>Super Saiyan Trunks (Teen)</t>
   </si>
 </sst>
 </file>
@@ -810,8 +825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E87DFB3-D60F-40E7-B06F-71C402B92D3E}">
   <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2794,93 +2809,138 @@
       <c r="A142">
         <v>141</v>
       </c>
+      <c r="B142" t="s">
+        <v>136</v>
+      </c>
+      <c r="C142" t="s">
+        <v>14</v>
+      </c>
+      <c r="D142" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>142</v>
       </c>
+      <c r="B143" t="s">
+        <v>137</v>
+      </c>
+      <c r="C143" t="s">
+        <v>14</v>
+      </c>
+      <c r="D143" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B144" t="s">
+        <v>138</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B145" t="s">
+        <v>140</v>
+      </c>
+      <c r="C145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B146" t="s">
+        <v>120</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>159</v>
       </c>

--- a/IDs.xlsx
+++ b/IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DA338B-8EFB-41BA-9A47-C969C35EBB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01833B5B-CF85-4ADE-9E35-02C974C40CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="154">
   <si>
     <t>ID</t>
   </si>
@@ -459,6 +459,45 @@
   </si>
   <si>
     <t>Super Saiyan Trunks (Teen)</t>
+  </si>
+  <si>
+    <t>Launch</t>
+  </si>
+  <si>
+    <t>Oceanus Shenron</t>
+  </si>
+  <si>
+    <t>Android 18</t>
+  </si>
+  <si>
+    <t>Mamba</t>
+  </si>
+  <si>
+    <t>Super Saiyan God SS Goku &amp; Super Saiyan God SS Vegeta</t>
+  </si>
+  <si>
+    <t>Mai (Future)</t>
+  </si>
+  <si>
+    <t>Zamasu</t>
+  </si>
+  <si>
+    <t>Trunks (Teen) (Future)</t>
+  </si>
+  <si>
+    <t>Gowasu &amp; Zamasu</t>
+  </si>
+  <si>
+    <t>Gohan (Future)</t>
+  </si>
+  <si>
+    <t>Super Saiyan Trunks (Future)</t>
+  </si>
+  <si>
+    <t>Zirloin, Rabanra &amp; Zarbuto</t>
+  </si>
+  <si>
+    <t>Android 17 &amp; Android 18</t>
   </si>
 </sst>
 </file>
@@ -825,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E87DFB3-D60F-40E7-B06F-71C402B92D3E}">
   <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2879,148 +2918,310 @@
       <c r="A147">
         <v>146</v>
       </c>
+      <c r="B147" t="s">
+        <v>141</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>147</v>
       </c>
+      <c r="B148" t="s">
+        <v>142</v>
+      </c>
+      <c r="C148" t="s">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>148</v>
       </c>
+      <c r="B149" t="s">
+        <v>143</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>149</v>
       </c>
+      <c r="B150" t="s">
+        <v>144</v>
+      </c>
+      <c r="C150" t="s">
+        <v>14</v>
+      </c>
+      <c r="D150" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>150</v>
       </c>
+      <c r="B151" t="s">
+        <v>145</v>
+      </c>
+      <c r="C151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>151</v>
       </c>
+      <c r="B152" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>152</v>
       </c>
+      <c r="B153" t="s">
+        <v>146</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>153</v>
       </c>
+      <c r="B154" t="s">
+        <v>147</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>154</v>
       </c>
+      <c r="B155" t="s">
+        <v>148</v>
+      </c>
+      <c r="C155" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>155</v>
       </c>
+      <c r="B156" t="s">
+        <v>147</v>
+      </c>
+      <c r="C156" t="s">
+        <v>14</v>
+      </c>
+      <c r="D156" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>156</v>
       </c>
+      <c r="B157" t="s">
+        <v>146</v>
+      </c>
+      <c r="C157" t="s">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>157</v>
       </c>
+      <c r="B158" t="s">
+        <v>149</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>158</v>
       </c>
+      <c r="B159" t="s">
+        <v>150</v>
+      </c>
+      <c r="C159" t="s">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>159</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B160" t="s">
+        <v>151</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>160</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B161" t="s">
+        <v>83</v>
+      </c>
+      <c r="C161" t="s">
+        <v>16</v>
+      </c>
+      <c r="D161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>161</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B162" t="s">
+        <v>93</v>
+      </c>
+      <c r="C162" t="s">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>162</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B163" t="s">
+        <v>152</v>
+      </c>
+      <c r="C163" t="s">
+        <v>16</v>
+      </c>
+      <c r="D163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>163</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B164" t="s">
+        <v>153</v>
+      </c>
+      <c r="C164" t="s">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>175</v>
       </c>

--- a/IDs.xlsx
+++ b/IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01833B5B-CF85-4ADE-9E35-02C974C40CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D138667-52CE-4DA7-A9AA-ED96DCF5278F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
+    <workbookView xWindow="11168" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E87DFB3-D60F-40E7-B06F-71C402B92D3E}">
   <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/IDs.xlsx
+++ b/IDs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D138667-52CE-4DA7-A9AA-ED96DCF5278F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE94555-F0CA-44EF-953D-5047FCBE140B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11168" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="159">
   <si>
     <t>ID</t>
   </si>
@@ -498,6 +498,21 @@
   </si>
   <si>
     <t>Android 17 &amp; Android 18</t>
+  </si>
+  <si>
+    <t>Dark King Fu</t>
+  </si>
+  <si>
+    <t>Super Full Power Saiyan 4 Limit Breaker Broly</t>
+  </si>
+  <si>
+    <t>Super Saiyan SS Vegeta (Berserk Controlled)</t>
+  </si>
+  <si>
+    <t>Crimson Masked Saiyan (Super Saiyan Rose 3)</t>
+  </si>
+  <si>
+    <t>Super Full Power Saiyan 4 Limit Breaker Vegito</t>
   </si>
 </sst>
 </file>
@@ -864,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E87DFB3-D60F-40E7-B06F-71C402B92D3E}">
   <dimension ref="A1:D415"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3170,25 +3185,70 @@
       <c r="A165">
         <v>164</v>
       </c>
+      <c r="B165" t="s">
+        <v>154</v>
+      </c>
+      <c r="C165" t="s">
+        <v>16</v>
+      </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>165</v>
       </c>
+      <c r="B166" t="s">
+        <v>155</v>
+      </c>
+      <c r="C166" t="s">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>166</v>
       </c>
+      <c r="B167" t="s">
+        <v>156</v>
+      </c>
+      <c r="C167" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>167</v>
       </c>
+      <c r="B168" t="s">
+        <v>157</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>158</v>
+      </c>
+      <c r="C169" t="s">
+        <v>14</v>
+      </c>
+      <c r="D169" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.45">

--- a/IDs.xlsx
+++ b/IDs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tyler\Documents\DokkanAnalysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE94555-F0CA-44EF-953D-5047FCBE140B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3066EE-5014-4942-A7A0-EB0A272BA36D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="11415" windowHeight="14362" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{1A0B58A8-FFCC-460B-B455-F35526D890BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -513,6 +513,9 @@
   </si>
   <si>
     <t>Super Full Power Saiyan 4 Limit Breaker Vegito</t>
+  </si>
+  <si>
+    <t>Super Saiyan 4 Vegito (Xeno)</t>
   </si>
 </sst>
 </file>
@@ -880,7 +883,7 @@
   <dimension ref="A1:D415"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F175" sqref="F175"/>
+      <selection activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3255,6 +3258,15 @@
       <c r="A170">
         <v>169</v>
       </c>
+      <c r="B170" t="s">
+        <v>159</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A171">
